--- a/biology/Zoologie/Hespérie_de_l'alchémille/Hespérie_de_l'alchémille.xlsx
+++ b/biology/Zoologie/Hespérie_de_l'alchémille/Hespérie_de_l'alchémille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+          <t>Hespérie_de_l'alchémille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrgus serratulae
 L’Hespérie de l'alchémille (Pyrgus serratulae) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Pyrgus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+          <t>Hespérie_de_l'alchémille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,50 +524,52 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyrgus serratulae a été décrit par Pierre Rambur en 1839 sous le nom initial d'Hesperia serratulae[1].
-Sous-espèces
-Pyrgus serratulae balcanica (Warren, 1926)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyrgus serratulae a été décrit par Pierre Rambur en 1839 sous le nom initial d'Hesperia serratulae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hespérie_de_l'alchémille</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pyrgus serratulae balcanica (Warren, 1926)
 Pyrgus serratulae gricescens Alberti, 1970
 Pyrgus serratulae major Staudinger, 1879
 Pyrgus serratulae shukshini Korshunov &amp; Ivonin, 1996
-Pyrgus serratulae uralensis Warren, 1926[1].
-Noms vernaculaires
-L'Hespérie de l'alchémille ou Hespérie de l'Armoise, ou Olivâtre se nomme Olive Skipper en anglais, Ängsskärevisslare en allemand et Ajedrezada verdosa en espagnol[2],[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie de l'alchémille est un petit papillon d'une envergure de 24 mm à 28 mm, au dessus de couleur marron foncé, avec aux quatre ailes une frange marginale blanche entrecoupée, aux antérieures d'une ornementation de petites taches blanches[3],[4].
-Le revers est plus clair, vert jaunâtre taché de petites taches blanches aux ailes antérieures, de plus grosses en partie en courte bande aux ailes postérieures.
-</t>
+Pyrgus serratulae uralensis Warren, 1926.</t>
         </is>
       </c>
     </row>
@@ -565,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+          <t>Hespérie_de_l'alchémille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,15 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie de l'alchémille vole en une génération entre mi-mai et mi-juillet[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Alchemilla et des Potentilla : Potentilla hirta, Potentilla nevadensis, Potentilla pedata, Potentilla repens, Potentilla tabernaemontani[1],[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de l'alchémille ou Hespérie de l'Armoise, ou Olivâtre se nomme Olive Skipper en anglais, Ängsskärevisslare en allemand et Ajedrezada verdosa en espagnol,.
 </t>
         </is>
       </c>
@@ -599,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+          <t>Hespérie_de_l'alchémille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,18 +631,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de l'alchémille est un petit papillon d'une envergure de 24 mm à 28 mm, au dessus de couleur marron foncé, avec aux quatre ailes une frange marginale blanche entrecoupée, aux antérieures d'une ornementation de petites taches blanches,.
+Le revers est plus clair, vert jaunâtre taché de petites taches blanches aux ailes antérieures, de plus grosses en partie en courte bande aux ailes postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_de_l'alchémille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de l'alchémille vole en une génération entre mi-mai et mi-juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_de_l'alchémille</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Alchemilla et des Potentilla : Potentilla hirta, Potentilla nevadensis, Potentilla pedata, Potentilla repens, Potentilla tabernaemontani,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_l'alchémille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hespérie de l'alchémille est présente de l'Espagne jusqu'à la Mongolie et le nord-est de la Chine.
-Elle est présente dans tout le sud de l'Europe (sauf l'Irlande, l'Angleterre et la Scandinavie). En Asie, elle est présente au Moyen-Orient, dans le sud de la Sibérie, en Mongolie Mongolie et dans le nord-est de la Chine[1].
-En France métropolitaine, elle est absente de la bordure de la mer du Nord et de la Manche[5]. Selon d'autres sources elle ne serait plus présente que dans quelques départements, Loire-Atlantique, Maine-et-Loire, Aisne, Ardennes, Haute-Marne, Puy-de-Dôme, Bouches-du-Rhône, Alpes-de-Haute-Provence et Alpes-Maritimes[2].
-Biotope
-L'Hespérie de l'alchémille réside dans les clairières et les broussailles, les lieux herbus fleuris[3].
-Protection
-L'Hespérie de l'alchémille a été listée LC (préoccupation minime) dans la liste rouge des rhopalocères de France métropolitaine[2].
+Elle est présente dans tout le sud de l'Europe (sauf l'Irlande, l'Angleterre et la Scandinavie). En Asie, elle est présente au Moyen-Orient, dans le sud de la Sibérie, en Mongolie Mongolie et dans le nord-est de la Chine.
+En France métropolitaine, elle est absente de la bordure de la mer du Nord et de la Manche. Selon d'autres sources elle ne serait plus présente que dans quelques départements, Loire-Atlantique, Maine-et-Loire, Aisne, Ardennes, Haute-Marne, Puy-de-Dôme, Bouches-du-Rhône, Alpes-de-Haute-Provence et Alpes-Maritimes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_l'alchémille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de l'alchémille réside dans les clairières et les broussailles, les lieux herbus fleuris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_de_l'alchémille</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_l%27alch%C3%A9mille</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de l'alchémille a été listée LC (préoccupation minime) dans la liste rouge des rhopalocères de France métropolitaine.
 </t>
         </is>
       </c>
